--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -25,7 +25,7 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>SUP06</t>
+    <t>SUP07</t>
   </si>
   <si>
     <t>CV Nusa Dua Indah</t>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="A2;D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -25,13 +25,13 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>SUP07</t>
+    <t>SUPCOBA</t>
   </si>
   <si>
-    <t>CV Nusa Dua Indah</t>
+    <t>Oethy Kost</t>
   </si>
   <si>
-    <t>Jl. Nusa Dua 09 Malang</t>
+    <t>Jl. Pinang Merah 2</t>
   </si>
 </sst>
 </file>
@@ -44,8 +44,16 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -517,138 +525,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,7 +1201,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2;D7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1197,14 +1211,14 @@
     <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
